--- a/Tempo.xlsx
+++ b/Tempo.xlsx
@@ -14,48 +14,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
-  <si>
-    <t>i5 8400</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="66">
+  <si>
+    <t>BubbleSort</t>
+  </si>
+  <si>
+    <t>Inserção Direta</t>
+  </si>
+  <si>
+    <t>Inserção Binaria</t>
+  </si>
+  <si>
+    <t>Shellsort</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
   </si>
   <si>
     <t>Aleatorio</t>
   </si>
   <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>TROCAS</t>
+  </si>
+  <si>
+    <t>COMPAR</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>Heapsort</t>
+  </si>
+  <si>
+    <t>quicksort</t>
+  </si>
+  <si>
+    <t>mergesort</t>
+  </si>
+  <si>
+    <t>Radixsort</t>
+  </si>
+  <si>
+    <t>Bucketsort</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>Não faz</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>6.74</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>77.16</t>
+  </si>
+  <si>
+    <t>120.67</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
     <t>Crescente</t>
   </si>
   <si>
-    <t>Decrescente</t>
-  </si>
-  <si>
-    <t>BubbleSort</t>
-  </si>
-  <si>
-    <t>Inserção Direta</t>
-  </si>
-  <si>
-    <t>Inserção Binaria</t>
-  </si>
-  <si>
-    <t>ShellSort</t>
-  </si>
-  <si>
-    <t>SelectionSort</t>
-  </si>
-  <si>
-    <t>HeapSort</t>
-  </si>
-  <si>
-    <t>QuickSort</t>
-  </si>
-  <si>
-    <t>MergeSort</t>
-  </si>
-  <si>
-    <t>RadixSort</t>
-  </si>
-  <si>
-    <t>BucketSort</t>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>6.57</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>112.44</t>
+  </si>
+  <si>
+    <t>120.68</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>Descrecente</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.99</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>7.26</t>
+  </si>
+  <si>
+    <t>124.21</t>
+  </si>
+  <si>
+    <t>130.84</t>
+  </si>
+  <si>
+    <t>1.77</t>
   </si>
 </sst>
 </file>
@@ -228,12 +384,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,12 +584,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,7 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,123 +741,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,320 +1185,1991 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="9.57142857142857"/>
+    <col min="8" max="9" width="9.57142857142857"/>
+    <col min="13" max="13" width="9.57142857142857"/>
+    <col min="24" max="24" width="9.57142857142857"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:19">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="L1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="3:19">
-      <c r="C2" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="6">
+        <v>100</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4950</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2481</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2580</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2481</v>
+      </c>
+      <c r="K4" s="6">
+        <v>100</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="5">
+        <v>548</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2481</v>
+      </c>
+      <c r="P4" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="5">
+        <v>938</v>
+      </c>
+      <c r="S4" s="5">
+        <v>435</v>
+      </c>
+      <c r="U4" s="6">
+        <v>100</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="5">
+        <v>97</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>258124</v>
+      </c>
+      <c r="D5" s="5">
+        <v>499500</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>259123</v>
+      </c>
+      <c r="I5" s="5">
+        <v>258124</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="5">
+        <v>258130</v>
+      </c>
+      <c r="N5" s="5">
+        <v>8756</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="5">
+        <v>16305</v>
+      </c>
+      <c r="S5" s="5">
+        <v>8299</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="5">
+        <v>995</v>
+      </c>
+      <c r="X5" s="5">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25343932</v>
+      </c>
+      <c r="D6" s="5">
+        <v>49995000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>25353931</v>
+      </c>
+      <c r="I6" s="5">
+        <v>25343932</v>
+      </c>
+      <c r="K6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="5">
+        <v>25344544</v>
+      </c>
+      <c r="N6" s="5">
+        <v>118942</v>
+      </c>
+      <c r="P6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="5">
+        <v>275452</v>
+      </c>
+      <c r="S6" s="5">
+        <v>155447</v>
+      </c>
+      <c r="U6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="5">
+        <v>9993</v>
+      </c>
+      <c r="X6" s="5">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="6">
+        <v>100</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>575</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1029</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="6">
+        <v>100</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="5">
+        <v>100</v>
+      </c>
+      <c r="N13" s="5">
+        <v>99</v>
+      </c>
+      <c r="P13" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="5">
+        <v>500</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="6">
+        <v>100</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="5">
+        <v>100</v>
+      </c>
+      <c r="X13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9075</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16845</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="5">
+        <v>999</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5000</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5">
+        <v>124117</v>
+      </c>
+      <c r="D15" s="5">
+        <v>235337</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="5">
+        <v>9999</v>
+      </c>
+      <c r="P15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="5">
+        <v>50000</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="X15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="3:19">
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>1000</v>
-      </c>
-      <c r="L3">
-        <v>10000</v>
-      </c>
-      <c r="Q3">
-        <v>100</v>
-      </c>
-      <c r="R3">
-        <v>1000</v>
-      </c>
-      <c r="S3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="U19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="H4" s="1" t="s">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="U20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="6">
+        <v>100</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4950</v>
+      </c>
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>99</v>
+      </c>
+      <c r="K22" s="6">
+        <v>100</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>573</v>
+      </c>
+      <c r="P22" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="5">
+        <v>503</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <v>100</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>499500</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5">
+        <v>999</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
+        <v>8977</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="5">
+        <v>8006</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>49995000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="5">
+        <v>9999</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="5">
+        <v>317</v>
+      </c>
+      <c r="N24" s="5">
+        <v>123609</v>
+      </c>
+      <c r="P24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="5">
+        <v>120005</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="U28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="U29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6">
+        <v>100</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5">
+        <v>640</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1081</v>
+      </c>
+      <c r="F31" s="6">
+        <v>100</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="6">
+        <v>100</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="5">
+        <v>100</v>
+      </c>
+      <c r="N31" s="5">
+        <v>50</v>
+      </c>
+      <c r="P31" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="5">
+        <v>600</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="6">
+        <v>100</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" s="5">
+        <v>100</v>
+      </c>
+      <c r="X31" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5">
+        <v>9691</v>
+      </c>
+      <c r="D32" s="5">
+        <v>17578</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="5">
+        <v>500</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="5">
+        <v>6000</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="5">
+        <v>131522</v>
+      </c>
+      <c r="D33" s="5">
+        <v>244502</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N33" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="5">
+        <v>60000</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W33" s="5">
+        <v>10000</v>
+      </c>
+      <c r="X33" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="U37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="O4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="U38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="H6" s="1" t="s">
+      <c r="C39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="O6" s="1" t="s">
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="M39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="H7" s="1" t="s">
+      <c r="N39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="O7" s="1" t="s">
+      <c r="S39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
+      <c r="X39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="6">
+        <v>100</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4950</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4950</v>
+      </c>
+      <c r="F40" s="6">
+        <v>100</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5049</v>
+      </c>
+      <c r="I40" s="5">
+        <v>4950</v>
+      </c>
+      <c r="K40" s="6">
+        <v>100</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="5">
+        <v>516</v>
+      </c>
+      <c r="N40" s="5">
+        <v>4950</v>
+      </c>
+      <c r="P40" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="5">
+        <v>763</v>
+      </c>
+      <c r="S40" s="5">
+        <v>260</v>
+      </c>
+      <c r="U40" s="6">
+        <v>100</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W40" s="5">
+        <v>50</v>
+      </c>
+      <c r="X40" s="5">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5">
+        <v>499496</v>
+      </c>
+      <c r="D41" s="5">
+        <v>499500</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5">
+        <v>500495</v>
+      </c>
+      <c r="I41" s="5">
+        <v>499496</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="5">
+        <v>499497</v>
+      </c>
+      <c r="N41" s="5">
+        <v>8472</v>
+      </c>
+      <c r="P41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R41" s="5">
+        <v>12704</v>
+      </c>
+      <c r="S41" s="5">
+        <v>4698</v>
+      </c>
+      <c r="U41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41" s="5">
+        <v>502</v>
+      </c>
+      <c r="X41" s="5">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="5">
+        <v>49994626</v>
+      </c>
+      <c r="D42" s="5">
+        <v>49995000</v>
+      </c>
+      <c r="F42" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="5">
+        <v>50004625</v>
+      </c>
+      <c r="I42" s="5">
+        <v>49994626</v>
+      </c>
+      <c r="K42" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M42" s="5">
+        <v>49994841</v>
+      </c>
+      <c r="N42" s="5">
+        <v>117572</v>
+      </c>
+      <c r="P42" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" s="5">
+        <v>182418</v>
+      </c>
+      <c r="S42" s="5">
+        <v>62413</v>
+      </c>
+      <c r="U42" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" s="5">
+        <v>5161</v>
+      </c>
+      <c r="X42" s="5">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="U46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="P47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="U47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="O8" s="1" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="6">
+        <v>100</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="H9" s="1" t="s">
+      <c r="C49" s="5">
+        <v>516</v>
+      </c>
+      <c r="D49" s="5">
+        <v>944</v>
+      </c>
+      <c r="F49" s="6">
+        <v>100</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="6">
+        <v>100</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="5">
+        <v>100</v>
+      </c>
+      <c r="N49" s="5">
+        <v>50</v>
+      </c>
+      <c r="P49" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="O9" s="1" t="s">
+      <c r="R49" s="5">
+        <v>600</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U49" s="6">
+        <v>100</v>
+      </c>
+      <c r="V49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+      <c r="W49" s="5">
+        <v>100</v>
+      </c>
+      <c r="X49" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="H10" s="1" t="s">
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="5">
+        <v>8318</v>
+      </c>
+      <c r="D50" s="5">
+        <v>15965</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="5">
+        <v>500</v>
+      </c>
+      <c r="P50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R50" s="5">
+        <v>6000</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W50" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X50" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="O10" s="1" t="s">
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="5">
+        <v>116688</v>
+      </c>
+      <c r="D51" s="5">
+        <v>226658</v>
+      </c>
+      <c r="F51" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N51" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P51" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R51" s="5">
+        <v>60000</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U51" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="X51" s="5">
         <v>10</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="O11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="O12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="O13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="15" spans="10:11">
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J15:K15"/>
+  <mergeCells count="60">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="U47:X47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <headerFooter/>
